--- a/medicine/Psychotrope/Sabayon_au_champagne/Sabayon_au_champagne.xlsx
+++ b/medicine/Psychotrope/Sabayon_au_champagne/Sabayon_au_champagne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le sabayon au champagne est un dessert d'origine italienne. La tradition veut que ce soient les cuisiniers de Catherine de Médicis qui aient apporté en France le sabayon (de l'italien zabajone)[1].
+Le sabayon au champagne est un dessert d'origine italienne. La tradition veut que ce soient les cuisiniers de Catherine de Médicis qui aient apporté en France le sabayon (de l'italien zabajone).
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Ingrédients</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La réalisation de ce mets nécessite jaunes d'œufs, champagne, sucre semoule, vanille ou cannelle en poudre[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La réalisation de ce mets nécessite jaunes d'œufs, champagne, sucre semoule, vanille ou cannelle en poudre.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Préparation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les jaunes d'œufs, le sucre et l'épice doivent être travaillés jusqu'à ce qu'ils deviennent jaune pâle et mousseux. Dans ce mélange, mis au bain-marie, est versé le champagne. L'ensemble est fouetté jusqu'à ce qu'il fasse le « ruban », c'est-à-dire qu'il prenne une consistance onctueuse. Dès que le sabayon est tiédi ou refroidi, il est versé dans des coupes[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les jaunes d'œufs, le sucre et l'épice doivent être travaillés jusqu'à ce qu'ils deviennent jaune pâle et mousseux. Dans ce mélange, mis au bain-marie, est versé le champagne. L'ensemble est fouetté jusqu'à ce qu'il fasse le « ruban », c'est-à-dire qu'il prenne une consistance onctueuse. Dès que le sabayon est tiédi ou refroidi, il est versé dans des coupes.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Accord mets/vin</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Traditionnellement, ce sabayon s'accompagne de champagne brut ou demi-sec[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Traditionnellement, ce sabayon s'accompagne de champagne brut ou demi-sec.
 </t>
         </is>
       </c>
